--- a/data/trans_orig/P27F_1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P27F_1-Edad-trans_orig.xlsx
@@ -7,8 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mz1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mz2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="M5" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mz1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mz2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -544,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según obtención de atención médica cuando se necesitaba en Mz1 (tasa de respuesta: 99,87%)</t>
+          <t>Población según obtención de atención médica cuando se necesitaba en M5 (tasa de respuesta: 99,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -842,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>25478</t>
+          <t>336745</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21557</t>
+          <t>290295</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>29294</t>
+          <t>373391</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>60,55%</t>
+          <t>71,47%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>51,23%</t>
+          <t>61,61%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>69,62%</t>
+          <t>79,25%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18470</t>
+          <t>287382</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14809</t>
+          <t>246796</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>22053</t>
+          <t>325957</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>49,85%</t>
+          <t>60,22%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>39,97%</t>
+          <t>51,71%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>59,52%</t>
+          <t>68,3%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>154</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>43949</t>
+          <t>624127</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>38063</t>
+          <t>557687</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>49347</t>
+          <t>673820</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>55,54%</t>
+          <t>65,81%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>48,1%</t>
+          <t>58,8%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>62,36%</t>
+          <t>71,05%</t>
         </is>
       </c>
     </row>
@@ -955,107 +956,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15833</t>
+          <t>134413</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11973</t>
+          <t>97767</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>19877</t>
+          <t>180863</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>37,63%</t>
+          <t>28,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>28,46%</t>
+          <t>20,75%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>47,24%</t>
+          <t>38,39%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>17264</t>
+          <t>180737</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>13773</t>
+          <t>141733</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>20794</t>
+          <t>223777</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>46,6%</t>
+          <t>37,87%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>37,17%</t>
+          <t>29,7%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>56,12%</t>
+          <t>46,89%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>80</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>33098</t>
+          <t>315150</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>28287</t>
+          <t>263792</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>39033</t>
+          <t>380809</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>41,83%</t>
+          <t>33,23%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>35,75%</t>
+          <t>27,81%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>49,33%</t>
+          <t>40,15%</t>
         </is>
       </c>
     </row>
@@ -1068,107 +1069,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>364</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>1802</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,87%</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>9131</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>44660</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1,91%</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>4,28%</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>962</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>309</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>2750</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>2,6%</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>0,83%</t>
-        </is>
-      </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>1326</t>
+          <t>9131</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>3410</t>
+          <t>45968</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>4,85%</t>
         </is>
       </c>
     </row>
@@ -1181,107 +1182,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2035</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>4,84%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>355</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>1797</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>0,96%</t>
-        </is>
-      </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>4,85%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>755</t>
-        </is>
-      </c>
-      <c r="S8" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T8" s="2" t="inlineStr">
-        <is>
-          <t>2518</t>
-        </is>
-      </c>
-      <c r="U8" s="2" t="inlineStr">
-        <is>
-          <t>0,95%</t>
-        </is>
-      </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1294,22 +1295,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>42075</t>
+          <t>471158</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>42075</t>
+          <t>471158</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>42075</t>
+          <t>471158</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1329,22 +1330,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>137</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>37052</t>
+          <t>477250</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>37052</t>
+          <t>477250</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>37052</t>
+          <t>477250</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1364,22 +1365,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>235</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>79128</t>
+          <t>948408</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>79128</t>
+          <t>948408</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>79128</t>
+          <t>948408</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1524,107 +1525,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25245</t>
+          <t>358742</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19553</t>
+          <t>295198</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30117</t>
+          <t>424212</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>50,61%</t>
+          <t>62,27%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,2%</t>
+          <t>51,24%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>60,38%</t>
+          <t>73,64%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21682</t>
+          <t>264265</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18228</t>
+          <t>226901</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>25336</t>
+          <t>305741</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>45,93%</t>
+          <t>52,56%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>38,61%</t>
+          <t>45,13%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>53,67%</t>
+          <t>60,81%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>169</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>46927</t>
+          <t>623006</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>41005</t>
+          <t>545462</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>53240</t>
+          <t>702531</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>48,34%</t>
+          <t>57,75%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>42,24%</t>
+          <t>50,56%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>54,84%</t>
+          <t>65,12%</t>
         </is>
       </c>
     </row>
@@ -1637,107 +1638,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>23500</t>
+          <t>181550</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>18500</t>
+          <t>125696</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>29071</t>
+          <t>247663</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>47,11%</t>
+          <t>31,51%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>37,09%</t>
+          <t>21,82%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>58,28%</t>
+          <t>42,99%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>24328</t>
+          <t>206718</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>20644</t>
+          <t>167790</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>27949</t>
+          <t>244239</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>51,54%</t>
+          <t>41,12%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>43,73%</t>
+          <t>33,37%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>59,21%</t>
+          <t>48,58%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>114</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>47828</t>
+          <t>388267</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>41387</t>
+          <t>319213</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>53668</t>
+          <t>466044</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>49,27%</t>
+          <t>35,99%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>42,63%</t>
+          <t>29,59%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>55,28%</t>
+          <t>43,2%</t>
         </is>
       </c>
     </row>
@@ -1750,107 +1751,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18973</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6797</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>45069</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>21255</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>9966</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1899</t>
+          <t>38815</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>40228</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>22229</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>1891</t>
+          <t>69690</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>6,46%</t>
         </is>
       </c>
     </row>
@@ -1863,107 +1864,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1133</t>
+          <t>16830</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>6207</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2998</t>
+          <t>39732</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>10506</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2967</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1759</t>
+          <t>25402</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1622</t>
+          <t>27336</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>12879</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>3762</t>
+          <t>49521</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>4,59%</t>
         </is>
       </c>
     </row>
@@ -1976,22 +1977,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>49878</t>
+          <t>576094</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>49878</t>
+          <t>576094</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>49878</t>
+          <t>576094</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2016,17 +2017,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>47205</t>
+          <t>502744</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>47205</t>
+          <t>502744</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>47205</t>
+          <t>502744</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2046,22 +2047,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>305</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>97083</t>
+          <t>1078837</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>97083</t>
+          <t>1078837</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>97083</t>
+          <t>1078837</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2206,107 +2207,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>145</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>33417</t>
+          <t>481032</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>28882</t>
+          <t>435571</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>37485</t>
+          <t>524598</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>55,5%</t>
+          <t>70,86%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>47,97%</t>
+          <t>64,16%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>62,26%</t>
+          <t>77,28%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>170</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>27997</t>
+          <t>387310</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>24717</t>
+          <t>347718</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>31112</t>
+          <t>426971</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>51,93%</t>
+          <t>53,98%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>45,84%</t>
+          <t>48,47%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>57,7%</t>
+          <t>59,51%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>315</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>61415</t>
+          <t>868342</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>56228</t>
+          <t>804515</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>67224</t>
+          <t>933782</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>53,81%</t>
+          <t>62,19%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>49,27%</t>
+          <t>57,62%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>58,9%</t>
+          <t>66,87%</t>
         </is>
       </c>
     </row>
@@ -2319,107 +2320,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>23720</t>
+          <t>170254</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>19997</t>
+          <t>131894</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>28035</t>
+          <t>212314</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>39,39%</t>
+          <t>25,08%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>33,21%</t>
+          <t>19,43%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>46,56%</t>
+          <t>31,28%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>137</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>23737</t>
+          <t>309027</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>20371</t>
+          <t>270641</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>27110</t>
+          <t>349244</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>44,02%</t>
+          <t>43,07%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>37,78%</t>
+          <t>37,72%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>50,28%</t>
+          <t>48,68%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>196</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>47456</t>
+          <t>479281</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>42308</t>
+          <t>416738</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>52574</t>
+          <t>541206</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>41,58%</t>
+          <t>34,32%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>37,07%</t>
+          <t>29,85%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>46,07%</t>
+          <t>38,76%</t>
         </is>
       </c>
     </row>
@@ -2432,107 +2433,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2321</t>
+          <t>17079</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1030</t>
+          <t>6309</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4286</t>
+          <t>36755</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1314</t>
+          <t>13166</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>4279</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2669</t>
+          <t>30762</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>3635</t>
+          <t>30245</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>14855</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>5895</t>
+          <t>54500</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>3,9%</t>
         </is>
       </c>
     </row>
@@ -2550,102 +2551,102 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>752</t>
+          <t>10491</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>3335</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2053</t>
+          <t>28871</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>869</t>
+          <t>7952</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>1973</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>2176</t>
+          <t>21462</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>1621</t>
+          <t>18443</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>7236</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>3075</t>
+          <t>40364</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>2,89%</t>
         </is>
       </c>
     </row>
@@ -2658,22 +2659,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>213</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>60210</t>
+          <t>678856</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>60210</t>
+          <t>678856</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>60210</t>
+          <t>678856</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2693,22 +2694,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>315</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>53917</t>
+          <t>717455</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>53917</t>
+          <t>717455</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>53917</t>
+          <t>717455</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2728,22 +2729,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>528</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>114127</t>
+          <t>1396311</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>114127</t>
+          <t>1396311</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>114127</t>
+          <t>1396311</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2888,107 +2889,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>158</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>26185</t>
+          <t>418621</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>22168</t>
+          <t>375149</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>30776</t>
+          <t>454537</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>45,13%</t>
+          <t>64,07%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>38,21%</t>
+          <t>57,42%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>53,04%</t>
+          <t>69,57%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>163</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>24631</t>
+          <t>349024</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>20948</t>
+          <t>313353</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>27920</t>
+          <t>386654</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>47,18%</t>
+          <t>52,77%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>40,12%</t>
+          <t>47,38%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>53,48%</t>
+          <t>58,46%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>321</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>50815</t>
+          <t>767646</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>44933</t>
+          <t>711659</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>55875</t>
+          <t>824952</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>46,1%</t>
+          <t>58,39%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>40,76%</t>
+          <t>54,13%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>50,69%</t>
+          <t>62,75%</t>
         </is>
       </c>
     </row>
@@ -3001,107 +3002,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>28392</t>
+          <t>215044</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>24164</t>
+          <t>177841</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>32634</t>
+          <t>258943</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>48,93%</t>
+          <t>32,91%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>41,65%</t>
+          <t>27,22%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>56,25%</t>
+          <t>39,63%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>135</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>24703</t>
+          <t>282833</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>21426</t>
+          <t>244528</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>28235</t>
+          <t>318173</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>47,32%</t>
+          <t>42,76%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>41,04%</t>
+          <t>36,97%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>54,08%</t>
+          <t>48,11%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>218</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>53095</t>
+          <t>497877</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>47601</t>
+          <t>445713</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>58915</t>
+          <t>555611</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>48,17%</t>
+          <t>37,87%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>43,18%</t>
+          <t>33,9%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>53,45%</t>
+          <t>42,26%</t>
         </is>
       </c>
     </row>
@@ -3119,52 +3120,52 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1248</t>
+          <t>9942</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>2473</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3050</t>
+          <t>22797</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1332</t>
+          <t>16859</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>7679</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>2848</t>
+          <t>32992</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -3174,47 +3175,47 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>2580</t>
+          <t>26801</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>1217</t>
+          <t>12766</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>4407</t>
+          <t>43491</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>3,31%</t>
         </is>
       </c>
     </row>
@@ -3227,107 +3228,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2196</t>
+          <t>9749</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>2521</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>6244</t>
+          <t>25480</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
+          <t>1,49%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>0,39%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>3,9%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>12695</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>5530</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>24999</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1,92%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>0,84%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
           <t>3,78%</t>
         </is>
       </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>1,0%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>10,76%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>1542</t>
-        </is>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t>654</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="inlineStr">
-        <is>
-          <t>2962</t>
-        </is>
-      </c>
-      <c r="N26" s="2" t="inlineStr">
-        <is>
-          <t>2,95%</t>
-        </is>
-      </c>
-      <c r="O26" s="2" t="inlineStr">
-        <is>
-          <t>1,25%</t>
-        </is>
-      </c>
-      <c r="P26" s="2" t="inlineStr">
-        <is>
-          <t>5,67%</t>
-        </is>
-      </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>3738</t>
+          <t>22444</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>2031</t>
+          <t>11702</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>7810</t>
+          <t>39426</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>3,0%</t>
         </is>
       </c>
     </row>
@@ -3340,22 +3341,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>249</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>58020</t>
+          <t>653357</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>58020</t>
+          <t>653357</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>58020</t>
+          <t>653357</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3375,22 +3376,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>312</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>52209</t>
+          <t>661411</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>52209</t>
+          <t>661411</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>52209</t>
+          <t>661411</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3410,22 +3411,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>561</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>110228</t>
+          <t>1314768</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>110228</t>
+          <t>1314768</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>110228</t>
+          <t>1314768</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3570,107 +3571,107 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>21577</t>
+          <t>326371</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>18089</t>
+          <t>293256</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>24738</t>
+          <t>362418</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>48,5%</t>
+          <t>66,51%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>40,66%</t>
+          <t>59,76%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>55,61%</t>
+          <t>73,86%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>97</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>22851</t>
+          <t>261809</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>19457</t>
+          <t>220768</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>26398</t>
+          <t>299521</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>46,85%</t>
+          <t>50,65%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>39,89%</t>
+          <t>42,71%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>54,13%</t>
+          <t>57,94%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>234</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>44428</t>
+          <t>588180</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>39746</t>
+          <t>535303</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>49381</t>
+          <t>640551</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>47,64%</t>
+          <t>58,37%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>42,62%</t>
+          <t>53,13%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>52,95%</t>
+          <t>63,57%</t>
         </is>
       </c>
     </row>
@@ -3683,107 +3684,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>21873</t>
+          <t>145390</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>18713</t>
+          <t>110631</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>25348</t>
+          <t>177702</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>49,17%</t>
+          <t>29,63%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>42,06%</t>
+          <t>22,55%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>56,98%</t>
+          <t>36,21%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>22731</t>
+          <t>226145</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>19285</t>
+          <t>190019</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>26251</t>
+          <t>264296</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>46,61%</t>
+          <t>43,75%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>39,54%</t>
+          <t>36,76%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>53,82%</t>
+          <t>51,13%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>140</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>44604</t>
+          <t>371535</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>39426</t>
+          <t>321146</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>49270</t>
+          <t>424251</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>47,83%</t>
+          <t>36,87%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>42,28%</t>
+          <t>31,87%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>52,83%</t>
+          <t>42,1%</t>
         </is>
       </c>
     </row>
@@ -3796,37 +3797,37 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>8281</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2056</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>1459</t>
+          <t>21199</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3836,67 +3837,67 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>1592</t>
+          <t>18856</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>7317</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>3336</t>
+          <t>38570</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>1869</t>
+          <t>27137</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>932</t>
+          <t>14600</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>3902</t>
+          <t>47175</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>4,68%</t>
         </is>
       </c>
     </row>
@@ -3909,107 +3910,107 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>761</t>
+          <t>10654</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>4147</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>2056</t>
+          <t>24569</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>1597</t>
+          <t>10108</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>2493</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>3259</t>
+          <t>22249</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>2358</t>
+          <t>20761</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>1224</t>
+          <t>11331</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>4178</t>
+          <t>39019</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>3,87%</t>
         </is>
       </c>
     </row>
@@ -4022,22 +4023,22 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>209</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>44487</t>
+          <t>490696</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>44487</t>
+          <t>490696</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>44487</t>
+          <t>490696</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -4057,22 +4058,22 @@
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>185</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>48771</t>
+          <t>516918</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>48771</t>
+          <t>516918</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>48771</t>
+          <t>516918</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -4092,22 +4093,22 @@
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>394</t>
         </is>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>93259</t>
+          <t>1007614</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>93259</t>
+          <t>1007614</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>93259</t>
+          <t>1007614</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -4252,107 +4253,107 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>21795</t>
+          <t>323100</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>17959</t>
+          <t>272504</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>25859</t>
+          <t>373294</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>46,53%</t>
+          <t>57,04%</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>38,34%</t>
+          <t>48,11%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>55,21%</t>
+          <t>65,91%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>92</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>32876</t>
+          <t>425449</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>26462</t>
+          <t>357477</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>38741</t>
+          <t>485814</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>52,08%</t>
+          <t>58,45%</t>
         </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>41,92%</t>
+          <t>49,11%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>61,37%</t>
+          <t>66,74%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>169</t>
         </is>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>54671</t>
+          <t>748549</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>47834</t>
+          <t>663912</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>62303</t>
+          <t>824191</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>49,72%</t>
+          <t>57,84%</t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>43,5%</t>
+          <t>51,3%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>56,66%</t>
+          <t>63,68%</t>
         </is>
       </c>
     </row>
@@ -4365,107 +4366,107 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>23795</t>
+          <t>228140</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>19711</t>
+          <t>177709</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>27580</t>
+          <t>275991</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>50,8%</t>
+          <t>40,28%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>42,08%</t>
+          <t>31,38%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>58,88%</t>
+          <t>48,73%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>55</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>27706</t>
+          <t>262287</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>21850</t>
+          <t>202740</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>34464</t>
+          <t>319069</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
+          <t>36,03%</t>
+        </is>
+      </c>
+      <c r="O36" s="2" t="inlineStr">
+        <is>
+          <t>27,85%</t>
+        </is>
+      </c>
+      <c r="P36" s="2" t="inlineStr">
+        <is>
+          <t>43,84%</t>
+        </is>
+      </c>
+      <c r="Q36" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="R36" s="2" t="inlineStr">
+        <is>
+          <t>490427</t>
+        </is>
+      </c>
+      <c r="S36" s="2" t="inlineStr">
+        <is>
+          <t>418839</t>
+        </is>
+      </c>
+      <c r="T36" s="2" t="inlineStr">
+        <is>
+          <t>568044</t>
+        </is>
+      </c>
+      <c r="U36" s="2" t="inlineStr">
+        <is>
+          <t>37,89%</t>
+        </is>
+      </c>
+      <c r="V36" s="2" t="inlineStr">
+        <is>
+          <t>32,36%</t>
+        </is>
+      </c>
+      <c r="W36" s="2" t="inlineStr">
+        <is>
           <t>43,89%</t>
-        </is>
-      </c>
-      <c r="O36" s="2" t="inlineStr">
-        <is>
-          <t>34,61%</t>
-        </is>
-      </c>
-      <c r="P36" s="2" t="inlineStr">
-        <is>
-          <t>54,59%</t>
-        </is>
-      </c>
-      <c r="Q36" s="2" t="inlineStr">
-        <is>
-          <t>128</t>
-        </is>
-      </c>
-      <c r="R36" s="2" t="inlineStr">
-        <is>
-          <t>51502</t>
-        </is>
-      </c>
-      <c r="S36" s="2" t="inlineStr">
-        <is>
-          <t>44332</t>
-        </is>
-      </c>
-      <c r="T36" s="2" t="inlineStr">
-        <is>
-          <t>58487</t>
-        </is>
-      </c>
-      <c r="U36" s="2" t="inlineStr">
-        <is>
-          <t>46,83%</t>
-        </is>
-      </c>
-      <c r="V36" s="2" t="inlineStr">
-        <is>
-          <t>40,31%</t>
-        </is>
-      </c>
-      <c r="W36" s="2" t="inlineStr">
-        <is>
-          <t>53,19%</t>
         </is>
       </c>
     </row>
@@ -4478,107 +4479,107 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>10509</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>2635</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>32135</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>1,86%</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>0,47%</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>5,67%</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>7732</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>39703</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>1,06%</t>
+        </is>
+      </c>
+      <c r="O37" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P37" s="2" t="inlineStr">
+        <is>
+          <t>5,45%</t>
+        </is>
+      </c>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D37" s="2" t="inlineStr">
-        <is>
-          <t>1248</t>
-        </is>
-      </c>
-      <c r="E37" s="2" t="inlineStr">
-        <is>
-          <t>275</t>
-        </is>
-      </c>
-      <c r="F37" s="2" t="inlineStr">
-        <is>
-          <t>3312</t>
-        </is>
-      </c>
-      <c r="G37" s="2" t="inlineStr">
-        <is>
-          <t>2,66%</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="inlineStr">
-        <is>
-          <t>0,59%</t>
-        </is>
-      </c>
-      <c r="I37" s="2" t="inlineStr">
-        <is>
-          <t>7,07%</t>
-        </is>
-      </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="inlineStr">
-        <is>
-          <t>1370</t>
-        </is>
-      </c>
-      <c r="L37" s="2" t="inlineStr">
-        <is>
-          <t>376</t>
-        </is>
-      </c>
-      <c r="M37" s="2" t="inlineStr">
-        <is>
-          <t>3944</t>
-        </is>
-      </c>
-      <c r="N37" s="2" t="inlineStr">
-        <is>
-          <t>2,17%</t>
-        </is>
-      </c>
-      <c r="O37" s="2" t="inlineStr">
-        <is>
-          <t>0,6%</t>
-        </is>
-      </c>
-      <c r="P37" s="2" t="inlineStr">
-        <is>
-          <t>6,25%</t>
-        </is>
-      </c>
-      <c r="Q37" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>18241</t>
         </is>
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>1038</t>
+          <t>5186</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>5480</t>
+          <t>45720</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>3,53%</t>
         </is>
       </c>
     </row>
@@ -4591,37 +4592,37 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4653</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>21650</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
+          <t>0,82%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
@@ -4631,67 +4632,67 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>1176</t>
+          <t>32411</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>3847</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>3337</t>
+          <t>129157</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="O38" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>17,74%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>1176</t>
+          <t>37064</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>7957</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>3313</t>
+          <t>129055</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="V38" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="W38" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>9,97%</t>
         </is>
       </c>
     </row>
@@ -4704,22 +4705,22 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>46838</t>
+          <t>566402</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>46838</t>
+          <t>566402</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>46838</t>
+          <t>566402</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
@@ -4739,22 +4740,22 @@
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>151</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>63129</t>
+          <t>727879</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>63129</t>
+          <t>727879</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>63129</t>
+          <t>727879</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
@@ -4774,22 +4775,22 @@
       </c>
       <c r="Q39" s="2" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>286</t>
         </is>
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>109967</t>
+          <t>1294281</t>
         </is>
       </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>109967</t>
+          <t>1294281</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>109967</t>
+          <t>1294281</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
@@ -4934,107 +4935,107 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>667</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>153697</t>
+          <t>2244611</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>142851</t>
+          <t>2119348</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>164549</t>
+          <t>2355248</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>50,98%</t>
+          <t>65,32%</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>47,38%</t>
+          <t>61,67%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>54,58%</t>
+          <t>68,53%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>695</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>148508</t>
+          <t>1975240</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>138316</t>
+          <t>1853920</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>158883</t>
+          <t>2078717</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>49,13%</t>
+          <t>54,81%</t>
         </is>
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>45,76%</t>
+          <t>51,45%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>52,56%</t>
+          <t>57,68%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>1002</t>
+          <t>1362</t>
         </is>
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>302205</t>
+          <t>4219851</t>
         </is>
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>287493</t>
+          <t>4052351</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>316411</t>
+          <t>4364988</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
         <is>
-          <t>50,05%</t>
+          <t>59,94%</t>
         </is>
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>47,61%</t>
+          <t>57,56%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>52,4%</t>
+          <t>62,0%</t>
         </is>
       </c>
     </row>
@@ -5047,107 +5048,107 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>329</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>137112</t>
+          <t>1074790</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>125884</t>
+          <t>968980</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>147515</t>
+          <t>1205226</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>45,48%</t>
+          <t>31,28%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>41,75%</t>
+          <t>28,2%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>48,93%</t>
+          <t>35,07%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>528</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>140470</t>
+          <t>1467747</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>130432</t>
+          <t>1365949</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>150288</t>
+          <t>1573151</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t>46,47%</t>
+          <t>40,73%</t>
         </is>
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>43,15%</t>
+          <t>37,9%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>49,72%</t>
+          <t>43,65%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>922</t>
+          <t>857</t>
         </is>
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>277582</t>
+          <t>2542538</t>
         </is>
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>263207</t>
+          <t>2408131</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>291692</t>
+          <t>2703736</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
         <is>
-          <t>45,97%</t>
+          <t>36,11%</t>
         </is>
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>43,59%</t>
+          <t>34,21%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>48,31%</t>
+          <t>38,4%</t>
         </is>
       </c>
     </row>
@@ -5160,57 +5161,57 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>5457</t>
+          <t>64785</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>3213</t>
+          <t>39919</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>8818</t>
+          <t>96543</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>7277</t>
+          <t>86998</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>5070</t>
+          <t>60021</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>10802</t>
+          <t>131842</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -5220,42 +5221,42 @@
       </c>
       <c r="O43" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>52</t>
         </is>
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>12734</t>
+          <t>151783</t>
         </is>
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>9583</t>
+          <t>110424</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>17229</t>
+          <t>200386</t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="V43" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="W43" s="2" t="inlineStr">
@@ -5273,107 +5274,107 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>5241</t>
+          <t>52376</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>2922</t>
+          <t>30175</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>9437</t>
+          <t>82278</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>6029</t>
+          <t>73672</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>4029</t>
+          <t>40630</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>8923</t>
+          <t>170517</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="O44" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="R44" s="2" t="inlineStr">
         <is>
-          <t>11271</t>
+          <t>126048</t>
         </is>
       </c>
       <c r="S44" s="2" t="inlineStr">
         <is>
-          <t>8006</t>
+          <t>86155</t>
         </is>
       </c>
       <c r="T44" s="2" t="inlineStr">
         <is>
-          <t>16074</t>
+          <t>222118</t>
         </is>
       </c>
       <c r="U44" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="V44" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="W44" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>3,15%</t>
         </is>
       </c>
     </row>
@@ -5386,22 +5387,22 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>918</t>
+          <t>1036</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>301507</t>
+          <t>3436562</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>301507</t>
+          <t>3436562</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>301507</t>
+          <t>3436562</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
@@ -5421,22 +5422,22 @@
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>1091</t>
+          <t>1273</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>302284</t>
+          <t>3603657</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>302284</t>
+          <t>3603657</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
         <is>
-          <t>302284</t>
+          <t>3603657</t>
         </is>
       </c>
       <c r="N45" s="2" t="inlineStr">
@@ -5456,22 +5457,22 @@
       </c>
       <c r="Q45" s="2" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2309</t>
         </is>
       </c>
       <c r="R45" s="2" t="inlineStr">
         <is>
-          <t>603791</t>
+          <t>7040220</t>
         </is>
       </c>
       <c r="S45" s="2" t="inlineStr">
         <is>
-          <t>603791</t>
+          <t>7040220</t>
         </is>
       </c>
       <c r="T45" s="2" t="inlineStr">
         <is>
-          <t>603791</t>
+          <t>7040220</t>
         </is>
       </c>
       <c r="U45" s="2" t="inlineStr">
@@ -5560,7 +5561,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según obtención de atención médica cuando se necesitaba en Mz2 (tasa de respuesta: 99,77%)</t>
+          <t>Población según obtención de atención médica cuando se necesitaba en Mz1 (tasa de respuesta: 99,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5858,6 +5859,5022 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>25478</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>21557</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>29294</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>60,55%</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>51,23%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>69,62%</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>18470</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>14809</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>22053</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>49,85%</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>39,97%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>59,52%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>43949</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>38063</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>49347</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>55,54%</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>48,1%</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>62,36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>15833</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>11973</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>19877</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>37,63%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>28,46%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>47,24%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>17264</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>13773</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>20794</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>46,6%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>37,17%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>56,12%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>33098</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>28287</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>39033</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>41,83%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>35,75%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>49,33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1802</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,87%</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4,28%</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>962</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2,6%</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0,83%</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>7,42%</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>1326</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>3410</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>1,68%</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>0,42%</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>4,31%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0,95%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4,84%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1797</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,96%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>4,85%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>755</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>2518</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>0,95%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>3,18%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>42075</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>42075</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>42075</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>37052</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>37052</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>37052</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>79128</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>79128</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>79128</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>25245</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>19553</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>30117</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>50,61%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>39,2%</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>60,38%</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>21682</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>18228</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>25336</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>45,93%</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>38,61%</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>53,67%</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>46927</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>41005</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>53240</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>48,34%</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>42,24%</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>54,84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>23500</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>18500</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>29071</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>47,11%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>37,09%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>58,28%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>24328</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>20644</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>27949</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>51,54%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>43,73%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>59,21%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>47828</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>41387</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>53668</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>49,27%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>42,63%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>55,28%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>706</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1899</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1,5%</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,44%</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>4,02%</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>706</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>1891</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>0,73%</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>0,16%</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>1,95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1133</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2998</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2,27%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0,56%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6,01%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1759</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1,04%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>3,73%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1622</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>3762</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>1,67%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>0,54%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>3,88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>49878</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>49878</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>49878</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>47205</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>47205</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>47205</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>97083</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>97083</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>97083</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>33417</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>28882</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>37485</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>55,5%</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>47,97%</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>62,26%</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>27997</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>24717</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>31112</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>51,93%</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>45,84%</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>57,7%</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>61415</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>56228</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>67224</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>53,81%</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>49,27%</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>58,9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>23720</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>19997</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>28035</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>39,39%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>33,21%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>46,56%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>23737</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>20371</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>27110</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>44,02%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>37,78%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>50,28%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>47456</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>42308</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>52574</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>41,58%</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>37,07%</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>46,07%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2321</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1030</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4286</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3,85%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1,71%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>7,12%</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>1314</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>2669</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>2,44%</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>1,14%</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>4,95%</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>3635</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>5895</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>3,18%</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>1,77%</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>5,17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2053</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1,25%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,36%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3,41%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>869</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>2176</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>1,61%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0,41%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>4,04%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>1621</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>3075</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>1,42%</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>0,57%</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>2,69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>60210</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>60210</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>60210</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>53917</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>53917</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>53917</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>114127</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>114127</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>114127</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>26185</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>22168</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>30776</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>45,13%</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>38,21%</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>53,04%</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>24631</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>20948</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>27920</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>47,18%</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>40,12%</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>53,48%</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>50815</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>44933</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>55875</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>46,1%</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>40,76%</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>50,69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>28392</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>24164</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>32634</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>48,93%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>41,65%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>56,25%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>24703</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>21426</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>28235</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>47,32%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>41,04%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>54,08%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>53095</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>47601</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>58915</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>48,17%</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>43,18%</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>53,45%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1248</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>3050</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>2,15%</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>0,53%</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>5,26%</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1332</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>2848</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>2,55%</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>0,85%</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>5,45%</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>2580</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>1217</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>4407</t>
+        </is>
+      </c>
+      <c r="U25" s="2" t="inlineStr">
+        <is>
+          <t>2,34%</t>
+        </is>
+      </c>
+      <c r="V25" s="2" t="inlineStr">
+        <is>
+          <t>1,1%</t>
+        </is>
+      </c>
+      <c r="W25" s="2" t="inlineStr">
+        <is>
+          <t>4,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>2196</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>6244</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>3,78%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>1,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>10,76%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1542</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>2962</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>2,95%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>1,25%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>5,67%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>3738</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>2031</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>7810</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="inlineStr">
+        <is>
+          <t>3,39%</t>
+        </is>
+      </c>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
+          <t>1,84%</t>
+        </is>
+      </c>
+      <c r="W26" s="2" t="inlineStr">
+        <is>
+          <t>7,09%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>58020</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>58020</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>58020</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>52209</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>52209</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>52209</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>110228</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>110228</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>110228</t>
+        </is>
+      </c>
+      <c r="U27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U28" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="V28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>21577</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>18089</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>24738</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>48,5%</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>40,66%</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>55,61%</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>22851</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>19457</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>26398</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>46,85%</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>39,89%</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>54,13%</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>44428</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>39746</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>49381</t>
+        </is>
+      </c>
+      <c r="U29" s="2" t="inlineStr">
+        <is>
+          <t>47,64%</t>
+        </is>
+      </c>
+      <c r="V29" s="2" t="inlineStr">
+        <is>
+          <t>42,62%</t>
+        </is>
+      </c>
+      <c r="W29" s="2" t="inlineStr">
+        <is>
+          <t>52,95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>21873</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>18713</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>25348</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>49,17%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>42,06%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>56,98%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>22731</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>19285</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>26251</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>46,61%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>39,54%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>53,82%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>44604</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>39426</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>49270</t>
+        </is>
+      </c>
+      <c r="U30" s="2" t="inlineStr">
+        <is>
+          <t>47,83%</t>
+        </is>
+      </c>
+      <c r="V30" s="2" t="inlineStr">
+        <is>
+          <t>42,28%</t>
+        </is>
+      </c>
+      <c r="W30" s="2" t="inlineStr">
+        <is>
+          <t>52,83%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>1459</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>0,62%</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>3,28%</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>1592</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>3336</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>3,27%</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>1,39%</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>6,84%</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>1869</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>932</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>3902</t>
+        </is>
+      </c>
+      <c r="U31" s="2" t="inlineStr">
+        <is>
+          <t>2,0%</t>
+        </is>
+      </c>
+      <c r="V31" s="2" t="inlineStr">
+        <is>
+          <t>1,0%</t>
+        </is>
+      </c>
+      <c r="W31" s="2" t="inlineStr">
+        <is>
+          <t>4,18%</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>2056</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>1,71%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>0,51%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>4,62%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>1597</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>3259</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>3,27%</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>1,4%</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>6,68%</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R32" s="2" t="inlineStr">
+        <is>
+          <t>2358</t>
+        </is>
+      </c>
+      <c r="S32" s="2" t="inlineStr">
+        <is>
+          <t>1224</t>
+        </is>
+      </c>
+      <c r="T32" s="2" t="inlineStr">
+        <is>
+          <t>4178</t>
+        </is>
+      </c>
+      <c r="U32" s="2" t="inlineStr">
+        <is>
+          <t>2,53%</t>
+        </is>
+      </c>
+      <c r="V32" s="2" t="inlineStr">
+        <is>
+          <t>1,31%</t>
+        </is>
+      </c>
+      <c r="W32" s="2" t="inlineStr">
+        <is>
+          <t>4,48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>44487</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>44487</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>44487</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>48771</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>48771</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>48771</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="R33" s="2" t="inlineStr">
+        <is>
+          <t>93259</t>
+        </is>
+      </c>
+      <c r="S33" s="2" t="inlineStr">
+        <is>
+          <t>93259</t>
+        </is>
+      </c>
+      <c r="T33" s="2" t="inlineStr">
+        <is>
+          <t>93259</t>
+        </is>
+      </c>
+      <c r="U33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R34" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="V34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>21795</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>17959</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>25859</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>46,53%</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>38,34%</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>55,21%</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>32876</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>26462</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>38741</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>52,08%</t>
+        </is>
+      </c>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>41,92%</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>61,37%</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="R35" s="2" t="inlineStr">
+        <is>
+          <t>54671</t>
+        </is>
+      </c>
+      <c r="S35" s="2" t="inlineStr">
+        <is>
+          <t>47834</t>
+        </is>
+      </c>
+      <c r="T35" s="2" t="inlineStr">
+        <is>
+          <t>62303</t>
+        </is>
+      </c>
+      <c r="U35" s="2" t="inlineStr">
+        <is>
+          <t>49,72%</t>
+        </is>
+      </c>
+      <c r="V35" s="2" t="inlineStr">
+        <is>
+          <t>43,5%</t>
+        </is>
+      </c>
+      <c r="W35" s="2" t="inlineStr">
+        <is>
+          <t>56,66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>23795</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>19711</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>27580</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>50,8%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>42,08%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>58,88%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>27706</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>21850</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>34464</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>43,89%</t>
+        </is>
+      </c>
+      <c r="O36" s="2" t="inlineStr">
+        <is>
+          <t>34,61%</t>
+        </is>
+      </c>
+      <c r="P36" s="2" t="inlineStr">
+        <is>
+          <t>54,59%</t>
+        </is>
+      </c>
+      <c r="Q36" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="R36" s="2" t="inlineStr">
+        <is>
+          <t>51502</t>
+        </is>
+      </c>
+      <c r="S36" s="2" t="inlineStr">
+        <is>
+          <t>44332</t>
+        </is>
+      </c>
+      <c r="T36" s="2" t="inlineStr">
+        <is>
+          <t>58487</t>
+        </is>
+      </c>
+      <c r="U36" s="2" t="inlineStr">
+        <is>
+          <t>46,83%</t>
+        </is>
+      </c>
+      <c r="V36" s="2" t="inlineStr">
+        <is>
+          <t>40,31%</t>
+        </is>
+      </c>
+      <c r="W36" s="2" t="inlineStr">
+        <is>
+          <t>53,19%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>1248</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>3312</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>2,66%</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>0,59%</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>7,07%</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>1370</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>3944</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>2,17%</t>
+        </is>
+      </c>
+      <c r="O37" s="2" t="inlineStr">
+        <is>
+          <t>0,6%</t>
+        </is>
+      </c>
+      <c r="P37" s="2" t="inlineStr">
+        <is>
+          <t>6,25%</t>
+        </is>
+      </c>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="R37" s="2" t="inlineStr">
+        <is>
+          <t>2618</t>
+        </is>
+      </c>
+      <c r="S37" s="2" t="inlineStr">
+        <is>
+          <t>1038</t>
+        </is>
+      </c>
+      <c r="T37" s="2" t="inlineStr">
+        <is>
+          <t>5480</t>
+        </is>
+      </c>
+      <c r="U37" s="2" t="inlineStr">
+        <is>
+          <t>2,38%</t>
+        </is>
+      </c>
+      <c r="V37" s="2" t="inlineStr">
+        <is>
+          <t>0,94%</t>
+        </is>
+      </c>
+      <c r="W37" s="2" t="inlineStr">
+        <is>
+          <t>4,98%</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>1176</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>3337</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>1,86%</t>
+        </is>
+      </c>
+      <c r="O38" s="2" t="inlineStr">
+        <is>
+          <t>0,54%</t>
+        </is>
+      </c>
+      <c r="P38" s="2" t="inlineStr">
+        <is>
+          <t>5,29%</t>
+        </is>
+      </c>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R38" s="2" t="inlineStr">
+        <is>
+          <t>1176</t>
+        </is>
+      </c>
+      <c r="S38" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="T38" s="2" t="inlineStr">
+        <is>
+          <t>3313</t>
+        </is>
+      </c>
+      <c r="U38" s="2" t="inlineStr">
+        <is>
+          <t>1,07%</t>
+        </is>
+      </c>
+      <c r="V38" s="2" t="inlineStr">
+        <is>
+          <t>0,31%</t>
+        </is>
+      </c>
+      <c r="W38" s="2" t="inlineStr">
+        <is>
+          <t>3,01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>46838</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>46838</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>46838</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>63129</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>63129</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>63129</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="R39" s="2" t="inlineStr">
+        <is>
+          <t>109967</t>
+        </is>
+      </c>
+      <c r="S39" s="2" t="inlineStr">
+        <is>
+          <t>109967</t>
+        </is>
+      </c>
+      <c r="T39" s="2" t="inlineStr">
+        <is>
+          <t>109967</t>
+        </is>
+      </c>
+      <c r="U39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R40" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S40" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T40" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U40" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="V40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>472</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>153697</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>142851</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>164549</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>50,98%</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>47,38%</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>54,58%</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>148508</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>138316</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>158883</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>49,13%</t>
+        </is>
+      </c>
+      <c r="O41" s="2" t="inlineStr">
+        <is>
+          <t>45,76%</t>
+        </is>
+      </c>
+      <c r="P41" s="2" t="inlineStr">
+        <is>
+          <t>52,56%</t>
+        </is>
+      </c>
+      <c r="Q41" s="2" t="inlineStr">
+        <is>
+          <t>1002</t>
+        </is>
+      </c>
+      <c r="R41" s="2" t="inlineStr">
+        <is>
+          <t>302205</t>
+        </is>
+      </c>
+      <c r="S41" s="2" t="inlineStr">
+        <is>
+          <t>287493</t>
+        </is>
+      </c>
+      <c r="T41" s="2" t="inlineStr">
+        <is>
+          <t>316411</t>
+        </is>
+      </c>
+      <c r="U41" s="2" t="inlineStr">
+        <is>
+          <t>50,05%</t>
+        </is>
+      </c>
+      <c r="V41" s="2" t="inlineStr">
+        <is>
+          <t>47,61%</t>
+        </is>
+      </c>
+      <c r="W41" s="2" t="inlineStr">
+        <is>
+          <t>52,4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>137112</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>125884</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>147515</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>45,48%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>41,75%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>48,93%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>140470</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>130432</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>150288</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>46,47%</t>
+        </is>
+      </c>
+      <c r="O42" s="2" t="inlineStr">
+        <is>
+          <t>43,15%</t>
+        </is>
+      </c>
+      <c r="P42" s="2" t="inlineStr">
+        <is>
+          <t>49,72%</t>
+        </is>
+      </c>
+      <c r="Q42" s="2" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="R42" s="2" t="inlineStr">
+        <is>
+          <t>277582</t>
+        </is>
+      </c>
+      <c r="S42" s="2" t="inlineStr">
+        <is>
+          <t>263207</t>
+        </is>
+      </c>
+      <c r="T42" s="2" t="inlineStr">
+        <is>
+          <t>291692</t>
+        </is>
+      </c>
+      <c r="U42" s="2" t="inlineStr">
+        <is>
+          <t>45,97%</t>
+        </is>
+      </c>
+      <c r="V42" s="2" t="inlineStr">
+        <is>
+          <t>43,59%</t>
+        </is>
+      </c>
+      <c r="W42" s="2" t="inlineStr">
+        <is>
+          <t>48,31%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>5457</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>3213</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>8818</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>1,81%</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>1,07%</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>2,92%</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>7277</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>5070</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>10802</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>2,41%</t>
+        </is>
+      </c>
+      <c r="O43" s="2" t="inlineStr">
+        <is>
+          <t>1,68%</t>
+        </is>
+      </c>
+      <c r="P43" s="2" t="inlineStr">
+        <is>
+          <t>3,57%</t>
+        </is>
+      </c>
+      <c r="Q43" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="R43" s="2" t="inlineStr">
+        <is>
+          <t>12734</t>
+        </is>
+      </c>
+      <c r="S43" s="2" t="inlineStr">
+        <is>
+          <t>9583</t>
+        </is>
+      </c>
+      <c r="T43" s="2" t="inlineStr">
+        <is>
+          <t>17229</t>
+        </is>
+      </c>
+      <c r="U43" s="2" t="inlineStr">
+        <is>
+          <t>2,11%</t>
+        </is>
+      </c>
+      <c r="V43" s="2" t="inlineStr">
+        <is>
+          <t>1,59%</t>
+        </is>
+      </c>
+      <c r="W43" s="2" t="inlineStr">
+        <is>
+          <t>2,85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>5241</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>2922</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>9437</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>3,13%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>6029</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>4029</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>1,99%</t>
+        </is>
+      </c>
+      <c r="O44" s="2" t="inlineStr">
+        <is>
+          <t>1,33%</t>
+        </is>
+      </c>
+      <c r="P44" s="2" t="inlineStr">
+        <is>
+          <t>2,95%</t>
+        </is>
+      </c>
+      <c r="Q44" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="R44" s="2" t="inlineStr">
+        <is>
+          <t>11271</t>
+        </is>
+      </c>
+      <c r="S44" s="2" t="inlineStr">
+        <is>
+          <t>8006</t>
+        </is>
+      </c>
+      <c r="T44" s="2" t="inlineStr">
+        <is>
+          <t>16074</t>
+        </is>
+      </c>
+      <c r="U44" s="2" t="inlineStr">
+        <is>
+          <t>1,87%</t>
+        </is>
+      </c>
+      <c r="V44" s="2" t="inlineStr">
+        <is>
+          <t>1,33%</t>
+        </is>
+      </c>
+      <c r="W44" s="2" t="inlineStr">
+        <is>
+          <t>2,66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>918</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>301507</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>301507</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>301507</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>1091</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>302284</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>302284</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>302284</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q45" s="2" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="R45" s="2" t="inlineStr">
+        <is>
+          <t>603791</t>
+        </is>
+      </c>
+      <c r="S45" s="2" t="inlineStr">
+        <is>
+          <t>603791</t>
+        </is>
+      </c>
+      <c r="T45" s="2" t="inlineStr">
+        <is>
+          <t>603791</t>
+        </is>
+      </c>
+      <c r="U45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población según obtención de atención médica cuando se necesitaba en Mz2 (tasa de respuesta: 99,77%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>n (muestra)</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Estimación puntual</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>lím inf IC</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>lím sup IC</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>n (muestra)</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Estimación puntual</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>lím inf IC</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>lím sup IC</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>n (muestra)</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>Estimación puntual</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>lím inf IC</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>lím sup IC</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
           <t>55</t>
         </is>
       </c>
